--- a/testdata/valid.xlsx
+++ b/testdata/valid.xlsx
@@ -18,7 +18,7 @@
     <t>Cell A1</t>
   </si>
   <si>
-    <t>Cell C10</t>
+    <t>Cell D10</t>
   </si>
   <si>
     <t>Cell B2</t>
@@ -298,7 +298,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
